--- a/prototypes.xlsx
+++ b/prototypes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Qt projects\iSoLIM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E506C6C-5881-43BA-9E03-42B3B0EF8980}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9AF1576-F592-45F7-B259-607B97E495F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15150" xr2:uid="{8E75995D-5318-4CB8-9AD5-4075E46BB3B0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{8E75995D-5318-4CB8-9AD5-4075E46BB3B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>basename</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -468,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F569F84-9CC0-48F9-B9B5-EB1A62C4C14E}">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -482,7 +482,10 @@
     <col min="5" max="5" width="8.625" customWidth="1"/>
     <col min="7" max="7" width="13.75" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="10" max="10" width="13.75" customWidth="1"/>
     <col min="11" max="11" width="17.25" customWidth="1"/>
+    <col min="12" max="12" width="11.125" customWidth="1"/>
+    <col min="14" max="14" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -564,6 +567,50 @@
       </c>
       <c r="M3" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>0.05</v>
+      </c>
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4">
+        <v>-4.75</v>
+      </c>
+      <c r="N4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
